--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E8" s="3">
         <v>15300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3600</v>
       </c>
       <c r="I17" s="3">
         <v>3600</v>
       </c>
       <c r="J17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
       </c>
       <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E18" s="3">
         <v>10700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>9400</v>
       </c>
       <c r="P18" s="3">
         <v>9400</v>
       </c>
       <c r="Q18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-4700</v>
       </c>
       <c r="L20" s="3">
         <v>-4700</v>
       </c>
       <c r="M20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>4100</v>
       </c>
       <c r="Q23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,46 +1454,49 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>800</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
       </c>
       <c r="I24" s="3">
+        <v>800</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,46 +1542,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3600</v>
       </c>
       <c r="J26" s="3">
         <v>3600</v>
       </c>
       <c r="K26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3000</v>
       </c>
       <c r="P26" s="3">
         <v>3000</v>
@@ -1541,46 +1592,49 @@
       <c r="Q26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3600</v>
       </c>
       <c r="J27" s="3">
         <v>3600</v>
       </c>
       <c r="K27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>3000</v>
       </c>
       <c r="P27" s="3">
         <v>3000</v>
@@ -1588,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,11 +1721,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,93 +1842,99 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>4700</v>
       </c>
       <c r="L32" s="3">
         <v>4700</v>
       </c>
       <c r="M32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N32" s="3">
         <v>5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3600</v>
       </c>
       <c r="J33" s="3">
         <v>3600</v>
       </c>
       <c r="K33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3000</v>
       </c>
       <c r="P33" s="3">
         <v>3000</v>
@@ -1870,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,46 +1992,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3600</v>
       </c>
       <c r="J35" s="3">
         <v>3600</v>
       </c>
       <c r="K35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>3000</v>
       </c>
       <c r="P35" s="3">
         <v>3000</v>
@@ -1964,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2139,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E41" s="3">
         <v>38500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6500</v>
       </c>
       <c r="J41" s="3">
         <v>6500</v>
       </c>
       <c r="K41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>49900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>69200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>24200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,67 +2487,73 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>21900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3600</v>
       </c>
       <c r="I48" s="3">
         <v>3600</v>
       </c>
       <c r="J48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>13000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2456,8 +2566,8 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1454900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1379600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1361200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1297200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1251600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1234900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1240800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1183900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1119000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1054500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1044400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1026000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1008700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>2900</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F57" s="3">
         <v>2900</v>
       </c>
       <c r="G57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,23 +2977,26 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>13900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2870,8 +3006,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1259000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1186500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1171900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1111000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1067200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1055400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1064800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1012300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1032300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>952200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>943000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>937000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>922500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>907100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E72" s="3">
         <v>79600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>76000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>73700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>73600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>70000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>66300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>62700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E76" s="3">
         <v>193100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>189400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>186200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>184300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>179500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>176000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>171600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>168300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>166800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>103500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>101600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,98 +3897,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3600</v>
       </c>
       <c r="J81" s="3">
         <v>3600</v>
       </c>
       <c r="K81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>3000</v>
       </c>
       <c r="P81" s="3">
         <v>3000</v>
@@ -3808,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,19 +4024,20 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
         <v>12400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>4200</v>
       </c>
       <c r="H89" s="3">
         <v>4200</v>
       </c>
       <c r="I89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,43 +4394,44 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
         <v>146900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4391,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
         <v>-120500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>30600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>53200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>80600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
         <v>38900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3600</v>
       </c>
       <c r="J17" s="3">
         <v>3600</v>
       </c>
       <c r="K17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2000</v>
       </c>
       <c r="P17" s="3">
         <v>2000</v>
       </c>
       <c r="Q17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>10300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>9400</v>
       </c>
       <c r="Q18" s="3">
         <v>9400</v>
       </c>
       <c r="R18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="S18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1288,52 @@
         <v>-6100</v>
       </c>
       <c r="E20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4700</v>
       </c>
       <c r="M20" s="3">
         <v>-4700</v>
       </c>
       <c r="N20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,47 +1343,50 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
         <v>3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>4100</v>
       </c>
       <c r="R23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
         <v>800</v>
       </c>
       <c r="F24" s="3">
+        <v>800</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>800</v>
       </c>
       <c r="I24" s="3">
         <v>800</v>
       </c>
       <c r="J24" s="3">
+        <v>800</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,49 +1594,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3600</v>
       </c>
       <c r="K26" s="3">
         <v>3600</v>
       </c>
       <c r="L26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>3000</v>
       </c>
       <c r="Q26" s="3">
         <v>3000</v>
@@ -1595,49 +1647,52 @@
       <c r="R26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3600</v>
       </c>
       <c r="K27" s="3">
         <v>3600</v>
       </c>
       <c r="L27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3000</v>
       </c>
       <c r="Q27" s="3">
         <v>3000</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,11 +1785,11 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,90 +1924,93 @@
         <v>6100</v>
       </c>
       <c r="E32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4700</v>
       </c>
       <c r="M32" s="3">
         <v>4700</v>
       </c>
       <c r="N32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O32" s="3">
         <v>5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3600</v>
       </c>
       <c r="K33" s="3">
         <v>3600</v>
       </c>
       <c r="L33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3000</v>
       </c>
       <c r="Q33" s="3">
         <v>3000</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,49 +2071,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>3600</v>
       </c>
       <c r="K35" s="3">
         <v>3600</v>
       </c>
       <c r="L35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3000</v>
       </c>
       <c r="Q35" s="3">
         <v>3000</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E41" s="3">
         <v>72600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6500</v>
       </c>
       <c r="K41" s="3">
         <v>6500</v>
       </c>
       <c r="L41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2201,47 +2291,50 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>49900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>69200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>24200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2501,47 +2609,50 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>21900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3600</v>
       </c>
       <c r="J48" s="3">
         <v>3600</v>
       </c>
       <c r="K48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2551,12 +2662,12 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>13000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2569,8 +2680,8 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,30 +2821,30 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1424600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1454900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1379600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1361200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1297200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1251600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1234900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1240800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1183900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1200600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1119000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1054500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1044400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1026000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1008700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2891,30 +3022,30 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>2900</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G57" s="3">
         <v>2900</v>
       </c>
       <c r="H57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2991,15 +3128,15 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>13900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3009,8 +3146,8 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1225600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1259000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1186500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1171900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1111000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1067200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1055400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1064800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1012300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1032300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>952200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>943000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>937000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>922500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>907100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E72" s="3">
         <v>82300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>79600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>76000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>73700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>73600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>70000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>66300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E76" s="3">
         <v>195900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>193100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>189400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>186200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>184300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>179500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>176000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>171600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>168300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>166800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>107400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>103500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,104 +4089,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>3600</v>
       </c>
       <c r="K81" s="3">
         <v>3600</v>
       </c>
       <c r="L81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>3000</v>
       </c>
       <c r="Q81" s="3">
         <v>3000</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4036,11 +4235,11 @@
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4336,47 +4553,50 @@
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
         <v>12400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>4200</v>
       </c>
       <c r="I89" s="3">
         <v>4200</v>
       </c>
       <c r="J89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,35 +4627,35 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4556,47 +4786,50 @@
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
         <v>146900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4627,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-200</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4826,47 +5072,50 @@
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
         <v>-120500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>30600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>53200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>80600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>60600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4926,43 +5178,46 @@
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
         <v>38900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F8" s="3">
         <v>15000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>14300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>13500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>11300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>11400</v>
       </c>
       <c r="R8" s="3">
         <v>11300</v>
       </c>
       <c r="S8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="T8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="U8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,31 +1121,37 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9800</v>
+        <v>12800</v>
       </c>
       <c r="E18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G18" s="3">
         <v>10300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>9300</v>
       </c>
       <c r="Q18" s="3">
         <v>9400</v>
       </c>
       <c r="R18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S18" s="3">
         <v>9400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="U18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1345,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-6100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-6000</v>
       </c>
       <c r="K20" s="3">
         <v>-5700</v>
       </c>
       <c r="L20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4200</v>
       </c>
       <c r="G21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I21" s="3">
         <v>3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2700</v>
       </c>
       <c r="N23" s="3">
         <v>4400</v>
       </c>
       <c r="O23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>700</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>800</v>
       </c>
       <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>800</v>
+      </c>
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>3100</v>
       </c>
       <c r="Q26" s="3">
         <v>3000</v>
       </c>
       <c r="R26" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="S26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3100</v>
       </c>
       <c r="Q27" s="3">
         <v>3000</v>
       </c>
       <c r="R27" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="S27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,14 +1910,14 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G32" s="3">
         <v>6100</v>
       </c>
-      <c r="E32" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>6000</v>
       </c>
       <c r="K32" s="3">
         <v>5700</v>
       </c>
       <c r="L32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3100</v>
       </c>
       <c r="Q33" s="3">
         <v>3000</v>
       </c>
       <c r="R33" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="S33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3100</v>
       </c>
       <c r="Q35" s="3">
         <v>3000</v>
       </c>
       <c r="R35" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="S35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2399,128 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51400</v>
+        <v>7500</v>
       </c>
       <c r="E41" s="3">
-        <v>72600</v>
+        <v>11400</v>
       </c>
       <c r="F41" s="3">
-        <v>38500</v>
+        <v>11400</v>
       </c>
       <c r="G41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>19600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>40000</v>
       </c>
       <c r="G42" s="3">
+        <v>60600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I42" s="3">
         <v>49900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>15000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>18500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>21600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>19200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>26400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>69200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>19000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>15800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>14500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>24200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,82 +2808,94 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>29700</v>
       </c>
       <c r="G48" s="3">
+        <v>25300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I48" s="3">
         <v>21900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>12400</v>
       </c>
       <c r="G49" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I49" s="3">
         <v>13000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2683,11 +2905,11 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +3044,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3700</v>
       </c>
       <c r="G52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H52" s="3">
         <v>3800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1549800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1593100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1424600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1454900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1379600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1361200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1297200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1251600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1234900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1240800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1183900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1200600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1119000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1054500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1044400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1026000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1008700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,34 +3271,36 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3900</v>
       </c>
       <c r="G57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1600</v>
       </c>
       <c r="L57" s="3">
         <v>1800</v>
@@ -3046,11 +3308,11 @@
       <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
+      <c r="N57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1600</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,43 +3385,49 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>18100</v>
       </c>
       <c r="G59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,8 +3444,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1390900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1225600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1259000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1186500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1171900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1111000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1067200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1055400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1064800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1012300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1032300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>952200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>943000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>937000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>922500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>907100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>87100</v>
+      </c>
+      <c r="F72" s="3">
         <v>84600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>82300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>79600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>76000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>73700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>73600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>70000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>66300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>62700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>59100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>57400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>54200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>51200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>48100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>45100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>202200</v>
+      </c>
+      <c r="F76" s="3">
         <v>199000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>195900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>193100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>189400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>186200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>184300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>179500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>176000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>171600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>168300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>166800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>111600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>107400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>103500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>101600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>3100</v>
       </c>
       <c r="Q81" s="3">
         <v>3000</v>
       </c>
       <c r="R81" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="S81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,28 +4620,30 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4200</v>
       </c>
       <c r="G89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I89" s="3">
         <v>12400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1600</v>
       </c>
       <c r="G91" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-142700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>12800</v>
       </c>
       <c r="G94" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="I94" s="3">
         <v>146900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-37500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>11800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-64400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-34600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-28500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-64400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-31400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,31 +5315,33 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="G96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="H96" s="3">
         <v>-200</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>160700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-38100</v>
       </c>
       <c r="G100" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-120500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>30600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>11600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-9800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>53200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-20000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>80600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>60600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>8100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>14000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>16100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-21200</v>
       </c>
       <c r="G102" s="3">
+        <v>34100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="I102" s="3">
         <v>38900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-50000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>55600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-13300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F8" s="3">
         <v>15500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>15300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>11300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>11400</v>
       </c>
       <c r="T8" s="3">
         <v>11300</v>
       </c>
       <c r="U8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="W8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,16 +1193,16 @@
         <v>-200</v>
       </c>
       <c r="I15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F18" s="3">
         <v>12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>9900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>9400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>9300</v>
       </c>
       <c r="S18" s="3">
         <v>9400</v>
       </c>
       <c r="T18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="U18" s="3">
         <v>9400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="W18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1412,140 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-6000</v>
       </c>
       <c r="M20" s="3">
         <v>-5700</v>
       </c>
       <c r="N20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F21" s="3">
         <v>5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>4400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1603,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F23" s="3">
         <v>4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>2700</v>
       </c>
       <c r="P23" s="3">
         <v>4400</v>
       </c>
       <c r="Q23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>600</v>
       </c>
       <c r="N24" s="3">
         <v>800</v>
       </c>
       <c r="O24" s="3">
+        <v>600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>3100</v>
       </c>
       <c r="S26" s="3">
         <v>3000</v>
       </c>
       <c r="T26" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="U26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>3100</v>
       </c>
       <c r="S27" s="3">
         <v>3000</v>
       </c>
       <c r="T27" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="U27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1993,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1916,14 +2037,14 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F32" s="3">
         <v>8300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6000</v>
       </c>
       <c r="M32" s="3">
         <v>5700</v>
       </c>
       <c r="N32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3100</v>
       </c>
       <c r="S33" s="3">
         <v>3000</v>
       </c>
       <c r="T33" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="U33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3100</v>
       </c>
       <c r="S35" s="3">
         <v>3000</v>
       </c>
       <c r="T35" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="U35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2572,140 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F41" s="3">
         <v>7500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>11000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>19600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F42" s="3">
         <v>37800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>62200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>40000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>60600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>25000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>49900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>15000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>18500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>21600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>19200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>26400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>69200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>19000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>15800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>14500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>24200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2958,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,94 +3023,106 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F48" s="3">
         <v>31500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>31800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>29700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>25300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>24600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>21900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>4800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F49" s="3">
         <v>12100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>13000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2911,11 +3132,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3283,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="F52" s="3">
         <v>3700</v>
       </c>
       <c r="G52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1684500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1602800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1549800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1593100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1424600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1454900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1379600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1361200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1297200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1251600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1234900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1240800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1183900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1200600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1054500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1044400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1026000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1008700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,40 +3532,42 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
       </c>
       <c r="N57" s="3">
         <v>1800</v>
@@ -3314,11 +3575,11 @@
       <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
+      <c r="P57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1600</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
@@ -3332,8 +3593,14 @@
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,49 +3658,55 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F59" s="3">
         <v>19200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>19600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>15000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>15400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3450,8 +3723,14 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3788,14 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1472000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1394000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1344600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1390900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1225600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1259000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1186500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1171900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1111000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1067200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1055400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1064800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1012300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1032300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>952200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>943000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>937000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>922500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>907100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>93400</v>
+      </c>
+      <c r="F72" s="3">
         <v>89900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>87100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>84600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>82300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>79600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>76000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>73700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>73600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>70000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>66300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>62700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>59100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>57400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>54200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>51200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>48100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>45100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>208800</v>
+      </c>
+      <c r="F76" s="3">
         <v>205200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>202200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>199000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>195900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>193100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>189400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>186200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>184300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>179500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>176000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>171600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>168300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>166800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>111600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>107400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>103500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>101600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3100</v>
       </c>
       <c r="S81" s="3">
         <v>3000</v>
       </c>
       <c r="T81" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="U81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4634,22 +5031,22 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F89" s="3">
         <v>3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="F94" s="3">
         <v>10900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-142700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>12800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-37500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-40100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>146900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-37500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-21400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>11800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-64400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-34600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-28500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-64400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-14800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-31400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5782,15 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
         <v>-700</v>
@@ -5335,19 +5802,19 @@
         <v>-700</v>
       </c>
       <c r="H96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="I96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
         <v>-200</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-43000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>160700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-38100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>73000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>14200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-120500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>30600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>11600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>53200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-20000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>80600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>60600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>8100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>14000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>16100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-28300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>22200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-21200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>34100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-24200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>38900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-50000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>55600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-13300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E8" s="3">
         <v>16800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1199,13 +1222,13 @@
         <v>-200</v>
       </c>
       <c r="K15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L15" s="3">
         <v>-100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3600</v>
       </c>
       <c r="O17" s="3">
         <v>3600</v>
       </c>
       <c r="P17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2000</v>
       </c>
       <c r="U17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E18" s="3">
         <v>14800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>9400</v>
       </c>
       <c r="V18" s="3">
         <v>9400</v>
       </c>
       <c r="W18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="X18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4700</v>
       </c>
       <c r="R20" s="3">
         <v>-4700</v>
       </c>
       <c r="S20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="T20" s="3">
         <v>-5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E21" s="3">
         <v>6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3800</v>
       </c>
       <c r="H23" s="3">
         <v>3800</v>
       </c>
       <c r="I23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>4100</v>
       </c>
       <c r="W23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>700</v>
       </c>
       <c r="H24" s="3">
         <v>700</v>
       </c>
       <c r="I24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J24" s="3">
         <v>800</v>
       </c>
       <c r="K24" s="3">
+        <v>800</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>800</v>
       </c>
       <c r="N24" s="3">
         <v>800</v>
       </c>
       <c r="O24" s="3">
+        <v>800</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,64 +1853,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3600</v>
       </c>
       <c r="P26" s="3">
         <v>3600</v>
       </c>
       <c r="Q26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>3000</v>
       </c>
       <c r="V26" s="3">
         <v>3000</v>
@@ -1869,64 +1921,67 @@
       <c r="W26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>3600</v>
       </c>
       <c r="P27" s="3">
         <v>3600</v>
       </c>
       <c r="Q27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>3000</v>
       </c>
       <c r="V27" s="3">
         <v>3000</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2043,11 +2104,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,129 +2261,135 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E32" s="3">
         <v>8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4700</v>
       </c>
       <c r="R32" s="3">
         <v>4700</v>
       </c>
       <c r="S32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="T32" s="3">
         <v>5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3600</v>
       </c>
       <c r="P33" s="3">
         <v>3600</v>
       </c>
       <c r="Q33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>3000</v>
       </c>
       <c r="V33" s="3">
         <v>3000</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,64 +2465,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>3600</v>
       </c>
       <c r="P35" s="3">
         <v>3600</v>
       </c>
       <c r="Q35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>3000</v>
       </c>
       <c r="V35" s="3">
         <v>3000</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>11400</v>
       </c>
       <c r="H41" s="3">
         <v>11400</v>
       </c>
       <c r="I41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J41" s="3">
         <v>12000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>6500</v>
       </c>
       <c r="P41" s="3">
         <v>6500</v>
       </c>
       <c r="Q41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="R41" s="3">
         <v>13700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E42" s="3">
         <v>61700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>72700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>37800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>62200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>60600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>69200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14500</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>24200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,103 +3134,109 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E48" s="3">
         <v>30500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3600</v>
       </c>
       <c r="O48" s="3">
         <v>3600</v>
       </c>
       <c r="P48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3138,8 +3249,8 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,19 +3406,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3700</v>
       </c>
       <c r="G52" s="3">
         <v>3700</v>
@@ -3310,35 +3430,35 @@
         <v>3700</v>
       </c>
       <c r="I52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J52" s="3">
         <v>3900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3800</v>
       </c>
       <c r="K52" s="3">
         <v>3800</v>
       </c>
       <c r="L52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1635500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1684500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1602800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1549800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1593100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1424600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1454900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1379600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1361200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1297200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1251600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1234900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1240800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1183900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1200600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1119000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1054500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1044400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1026000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1008700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,56 +3664,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3900</v>
       </c>
       <c r="I57" s="3">
         <v>3900</v>
       </c>
       <c r="J57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2900</v>
       </c>
       <c r="L57" s="3">
         <v>2900</v>
       </c>
       <c r="M57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,41 +3798,44 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3708,8 +3845,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1422600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1472000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1394000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1344600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1390900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1225600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1259000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1186500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1171900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1111000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1067200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1055400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1064800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1012300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1032300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>952200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>943000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>937000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>922500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>907100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E72" s="3">
         <v>97400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>93400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>89900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>87100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>84600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>82300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>79600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>73700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>73600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>70000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>66300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>62700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>59100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>57400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>51200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E76" s="3">
         <v>212500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>208800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>205200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>202200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>199000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>195900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>193100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>189400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>186200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>184300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>179500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>176000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>171600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>168300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>166800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>107400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>103500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>101600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,134 +5048,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>3600</v>
       </c>
       <c r="P81" s="3">
         <v>3600</v>
       </c>
       <c r="Q81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>3000</v>
       </c>
       <c r="V81" s="3">
         <v>3000</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,7 +5236,7 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -5046,10 +5245,10 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>4200</v>
       </c>
       <c r="H89" s="3">
         <v>4200</v>
       </c>
       <c r="I89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>4200</v>
       </c>
       <c r="N89" s="3">
         <v>4200</v>
       </c>
       <c r="O89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P89" s="3">
         <v>4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,52 +5729,52 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-90900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-142700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>146900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,16 +6017,17 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-700</v>
       </c>
       <c r="F96" s="3">
         <v>-700</v>
@@ -5808,7 +6042,7 @@
         <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
@@ -5817,7 +6051,7 @@
         <v>-200</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E100" s="3">
         <v>73800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>47500</v>
       </c>
-      <c r="F100" s="3">
-        <v>-43000</v>
-      </c>
       <c r="G100" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="H100" s="3">
         <v>160700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-120500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>53200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>80600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>60600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>16100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E8" s="3">
         <v>17400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1225,13 +1248,13 @@
         <v>-200</v>
       </c>
       <c r="L15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M15" s="3">
         <v>-100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3600</v>
       </c>
       <c r="P17" s="3">
         <v>3600</v>
       </c>
       <c r="Q17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2000</v>
       </c>
       <c r="V17" s="3">
         <v>2000</v>
       </c>
       <c r="W17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E18" s="3">
         <v>15700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>9400</v>
       </c>
       <c r="W18" s="3">
         <v>9400</v>
       </c>
       <c r="X18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-4700</v>
       </c>
       <c r="S20" s="3">
         <v>-4700</v>
       </c>
       <c r="T20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="U20" s="3">
         <v>-5500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E21" s="3">
         <v>7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E23" s="3">
         <v>7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3800</v>
       </c>
       <c r="I23" s="3">
         <v>3800</v>
       </c>
       <c r="J23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>4100</v>
       </c>
       <c r="X23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>700</v>
       </c>
       <c r="I24" s="3">
         <v>700</v>
       </c>
       <c r="J24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>800</v>
       </c>
       <c r="L24" s="3">
+        <v>800</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>800</v>
       </c>
       <c r="O24" s="3">
         <v>800</v>
       </c>
       <c r="P24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,67 +1905,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>3600</v>
       </c>
       <c r="Q26" s="3">
         <v>3600</v>
       </c>
       <c r="R26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>3000</v>
       </c>
       <c r="W26" s="3">
         <v>3000</v>
@@ -1924,67 +1976,70 @@
       <c r="X26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3600</v>
       </c>
       <c r="Q27" s="3">
         <v>3600</v>
       </c>
       <c r="R27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>3000</v>
       </c>
       <c r="W27" s="3">
         <v>3000</v>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2150,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2107,11 +2168,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,135 +2331,141 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>8600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>4700</v>
       </c>
       <c r="S32" s="3">
         <v>4700</v>
       </c>
       <c r="T32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="U32" s="3">
         <v>5500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3600</v>
       </c>
       <c r="Q33" s="3">
         <v>3600</v>
       </c>
       <c r="R33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>3000</v>
       </c>
       <c r="W33" s="3">
         <v>3000</v>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,67 +2544,70 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3600</v>
       </c>
       <c r="Q35" s="3">
         <v>3600</v>
       </c>
       <c r="R35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>3000</v>
       </c>
       <c r="W35" s="3">
         <v>3000</v>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2747,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>11400</v>
       </c>
       <c r="I41" s="3">
         <v>11400</v>
       </c>
       <c r="J41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K41" s="3">
         <v>12000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>6500</v>
       </c>
       <c r="Q41" s="3">
         <v>6500</v>
       </c>
       <c r="R41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="S41" s="3">
         <v>13700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E42" s="3">
         <v>74800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>61700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>72700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>37800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>62200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>60600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>26400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>69200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14500</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>24200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,109 +3242,115 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E48" s="3">
         <v>29900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3600</v>
       </c>
       <c r="P48" s="3">
         <v>3600</v>
       </c>
       <c r="Q48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R48" s="3">
         <v>3700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E49" s="3">
         <v>11600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3252,8 +3363,8 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,22 +3526,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3700</v>
       </c>
       <c r="H52" s="3">
         <v>3700</v>
@@ -3433,35 +3553,35 @@
         <v>3700</v>
       </c>
       <c r="J52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3800</v>
       </c>
       <c r="L52" s="3">
         <v>3800</v>
       </c>
       <c r="M52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1669200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1635500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1684500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1602800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1549800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1593100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1424600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1454900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1379600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1361200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1297200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1251600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1234900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1240800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1183900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1119000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1054500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1044400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1026000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1008700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,59 +3795,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3900</v>
       </c>
       <c r="J57" s="3">
         <v>3900</v>
       </c>
       <c r="K57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L57" s="3">
         <v>3300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2900</v>
       </c>
       <c r="M57" s="3">
         <v>2900</v>
       </c>
       <c r="N57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,44 +3935,47 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E59" s="3">
         <v>18000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3848,8 +3985,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1422600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1472000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1394000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1344600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1390900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1225600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1259000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1186500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1171900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1111000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1067200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1055400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1064800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1012300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1032300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>952200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>943000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>937000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>922500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>907100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E72" s="3">
         <v>101700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>97400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>93400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>89900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>87100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>84600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>82300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>73700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>73600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>70000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>66300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>62700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>59100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>57400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>54200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>51200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>45100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E76" s="3">
         <v>212800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>212500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>205200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>202200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>199000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>195900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>193100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>189400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>186200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>184300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>179500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>176000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>171600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>168300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>166800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>111600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>107400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>103500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>101600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,140 +5240,146 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>3600</v>
       </c>
       <c r="Q81" s="3">
         <v>3600</v>
       </c>
       <c r="R81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>3000</v>
       </c>
       <c r="W81" s="3">
         <v>3000</v>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,7 +5438,7 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -5248,10 +5447,10 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>4200</v>
       </c>
       <c r="I89" s="3">
         <v>4200</v>
       </c>
       <c r="J89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>4200</v>
       </c>
       <c r="O89" s="3">
         <v>4200</v>
       </c>
       <c r="P89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,64 +5940,65 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E94" s="3">
         <v>64200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-90900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-142700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>146900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,10 +6261,10 @@
         <v>-1200</v>
       </c>
       <c r="E96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-700</v>
       </c>
       <c r="G96" s="3">
         <v>-700</v>
@@ -6045,7 +6279,7 @@
         <v>-700</v>
       </c>
       <c r="K96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="L96" s="3">
         <v>-200</v>
@@ -6054,7 +6288,7 @@
         <v>-200</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-49000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>47500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-43100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>160700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>73000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-120500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>53200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>80600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>60600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>14000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>16100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E102" s="3">
         <v>12400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-50000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E8" s="3">
         <v>17700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,13 +1273,13 @@
         <v>-200</v>
       </c>
       <c r="M15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N15" s="3">
         <v>-100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3600</v>
       </c>
       <c r="Q17" s="3">
         <v>3600</v>
       </c>
       <c r="R17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2000</v>
       </c>
       <c r="W17" s="3">
         <v>2000</v>
       </c>
       <c r="X17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E18" s="3">
         <v>16200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>9400</v>
       </c>
       <c r="X18" s="3">
         <v>9400</v>
       </c>
       <c r="Y18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Z18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-4700</v>
       </c>
       <c r="T20" s="3">
         <v>-4700</v>
       </c>
       <c r="U20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="V20" s="3">
         <v>-5500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>8200</v>
       </c>
-      <c r="E21" s="3">
-        <v>7600</v>
-      </c>
       <c r="F21" s="3">
-        <v>6700</v>
+        <v>8000</v>
       </c>
       <c r="G21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H21" s="3">
         <v>5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>4900</v>
-      </c>
-      <c r="M21" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>4800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>4700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>4400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>4500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T21" s="3">
-        <v>4600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>4200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>4000</v>
-      </c>
-      <c r="W21" s="3">
-        <v>4500</v>
-      </c>
-      <c r="X21" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E23" s="3">
         <v>7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3800</v>
       </c>
       <c r="J23" s="3">
         <v>3800</v>
       </c>
       <c r="K23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>4100</v>
       </c>
       <c r="Y23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>700</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
       </c>
       <c r="K24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L24" s="3">
         <v>800</v>
       </c>
       <c r="M24" s="3">
+        <v>800</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>800</v>
       </c>
       <c r="P24" s="3">
         <v>800</v>
       </c>
       <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,70 +1956,73 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>3600</v>
       </c>
       <c r="R26" s="3">
         <v>3600</v>
       </c>
       <c r="S26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>3000</v>
       </c>
       <c r="X26" s="3">
         <v>3000</v>
@@ -1979,70 +2030,73 @@
       <c r="Y26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>3600</v>
       </c>
       <c r="R27" s="3">
         <v>3600</v>
       </c>
       <c r="S27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>3000</v>
       </c>
       <c r="X27" s="3">
         <v>3000</v>
@@ -2050,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,8 +2213,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2171,11 +2231,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,141 +2400,147 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>4700</v>
       </c>
       <c r="T32" s="3">
         <v>4700</v>
       </c>
       <c r="U32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="V32" s="3">
         <v>5500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>3600</v>
       </c>
       <c r="R33" s="3">
         <v>3600</v>
       </c>
       <c r="S33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>3000</v>
       </c>
       <c r="X33" s="3">
         <v>3000</v>
@@ -2476,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,70 +2622,73 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>3600</v>
       </c>
       <c r="R35" s="3">
         <v>3600</v>
       </c>
       <c r="S35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>3000</v>
       </c>
       <c r="X35" s="3">
         <v>3000</v>
@@ -2618,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E41" s="3">
         <v>11600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>11400</v>
       </c>
       <c r="J41" s="3">
         <v>11400</v>
       </c>
       <c r="K41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L41" s="3">
         <v>12000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>6500</v>
       </c>
       <c r="R41" s="3">
         <v>6500</v>
       </c>
       <c r="S41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="T41" s="3">
         <v>13700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>132600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>74800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>61700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>37800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>62200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>60600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>26400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>69200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14500</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>24200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,115 +3349,121 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>29200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3600</v>
       </c>
       <c r="Q48" s="3">
         <v>3600</v>
       </c>
       <c r="R48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S48" s="3">
         <v>3700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E49" s="3">
         <v>11400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3366,8 +3476,8 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,25 +3645,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3700</v>
       </c>
       <c r="I52" s="3">
         <v>3700</v>
@@ -3556,35 +3675,35 @@
         <v>3700</v>
       </c>
       <c r="K52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L52" s="3">
         <v>3900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3800</v>
       </c>
       <c r="M52" s="3">
         <v>3800</v>
       </c>
       <c r="N52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1687700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1669200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1635500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1684500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1602800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1549800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1593100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1424600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1454900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1379600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1361200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1297200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1251600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1234900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1240800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1183900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1119000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1054500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1044400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1026000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1008700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,62 +3925,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3900</v>
       </c>
       <c r="K57" s="3">
         <v>3900</v>
       </c>
       <c r="L57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M57" s="3">
         <v>3300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2900</v>
       </c>
       <c r="N57" s="3">
         <v>2900</v>
       </c>
       <c r="O57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,47 +4071,50 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>17500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3988,8 +4124,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1471100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1454000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1422600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1472000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1394000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1344600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1390900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1225600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1259000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1186500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1171900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1111000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1067200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1055400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1064800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1012300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1032300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>952200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>943000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>937000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>922500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>907100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E72" s="3">
         <v>106500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>101700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>97400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>93400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>89900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>87100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>84600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>82300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>79600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>76000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>73700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>73600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>70000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>66300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>62700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>59100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>57400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>54200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>51200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>45100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E76" s="3">
         <v>215200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>212800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>212500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>205200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>202200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>199000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>195900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>193100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>189400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>186200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>184300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>179500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>176000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>171600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>168300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>166800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>111600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>107400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>103500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>101600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,146 +5431,152 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>3600</v>
       </c>
       <c r="R81" s="3">
         <v>3600</v>
       </c>
       <c r="S81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>3000</v>
       </c>
       <c r="X81" s="3">
         <v>3000</v>
@@ -5390,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,22 +5614,23 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>500</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>-1400</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -5441,7 +5639,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -5450,10 +5648,10 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F89" s="3">
-        <v>7200</v>
+        <v>4300</v>
       </c>
       <c r="G89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="H89" s="3">
         <v>5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>4200</v>
       </c>
       <c r="P89" s="3">
         <v>4200</v>
       </c>
       <c r="Q89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R89" s="3">
         <v>4000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,67 +6160,68 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-200</v>
-      </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-800</v>
-      </c>
       <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
         <v>32400</v>
       </c>
-      <c r="E94" s="3">
-        <v>64200</v>
-      </c>
       <c r="F94" s="3">
-        <v>-90900</v>
+        <v>-26700</v>
       </c>
       <c r="G94" s="3">
+        <v>49300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-21300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-142700</v>
-      </c>
       <c r="J94" s="3">
+        <v>-129900</v>
+      </c>
+      <c r="K94" s="3">
         <v>12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>146900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-31400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,22 +6484,23 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-1200</v>
       </c>
       <c r="F96" s="3">
-        <v>-800</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-700</v>
+        <v>1900</v>
       </c>
       <c r="H96" s="3">
         <v>-700</v>
@@ -6276,13 +6509,13 @@
         <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>-700</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>-700</v>
       </c>
       <c r="L96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="M96" s="3">
         <v>-200</v>
@@ -6291,7 +6524,7 @@
         <v>-200</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>29300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-49000</v>
-      </c>
       <c r="F100" s="3">
-        <v>73800</v>
+        <v>24900</v>
       </c>
       <c r="G100" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="H100" s="3">
         <v>47500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-43100</v>
       </c>
-      <c r="I100" s="3">
-        <v>160700</v>
-      </c>
       <c r="J100" s="3">
+        <v>122600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-38100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>53200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>80600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>60600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>14000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>16100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>64200</v>
       </c>
-      <c r="E102" s="3">
-        <v>12400</v>
-      </c>
       <c r="F102" s="3">
-        <v>-9900</v>
+        <v>2500</v>
       </c>
       <c r="G102" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="H102" s="3">
         <v>32100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28300</v>
       </c>
-      <c r="I102" s="3">
-        <v>22200</v>
-      </c>
       <c r="J102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-21200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-50000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>55600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,199 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="E8" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="F8" s="3">
         <v>17400</v>
       </c>
       <c r="G8" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I8" s="3">
         <v>16800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>15900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>15300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>15200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>14300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>13500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>12600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>11300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>11400</v>
       </c>
       <c r="Y8" s="3">
         <v>11300</v>
       </c>
       <c r="Z8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="AB8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,13 +1280,19 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E15" s="3">
         <v>-200</v>
@@ -1276,16 +1322,16 @@
         <v>-200</v>
       </c>
       <c r="N15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P15" s="3">
         <v>-100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H18" s="3">
         <v>15700</v>
       </c>
-      <c r="E18" s="3">
-        <v>16200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>15700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>14800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>10500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>9900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>9600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>7400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>9100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>9400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>9300</v>
       </c>
       <c r="X18" s="3">
         <v>9400</v>
       </c>
       <c r="Y18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>9400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="AB18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1581,170 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7500</v>
+        <v>-8400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="F20" s="3">
-        <v>-8600</v>
+        <v>-7800</v>
       </c>
       <c r="G20" s="3">
         <v>-8500</v>
       </c>
       <c r="H20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-6000</v>
       </c>
       <c r="R20" s="3">
         <v>-5700</v>
       </c>
       <c r="S20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="U20" s="3">
         <v>-5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-5500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-5600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>8400</v>
       </c>
       <c r="E21" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G21" s="3">
         <v>8200</v>
       </c>
-      <c r="F21" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>4800</v>
       </c>
-      <c r="H21" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="S21" s="3">
         <v>4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="T21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="X21" s="3">
         <v>4200</v>
       </c>
-      <c r="L21" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>4800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="Y21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AA21" s="3">
         <v>4400</v>
       </c>
-      <c r="S21" s="3">
-        <v>4500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>3000</v>
-      </c>
-      <c r="U21" s="3">
-        <v>4600</v>
-      </c>
-      <c r="V21" s="3">
-        <v>4200</v>
-      </c>
-      <c r="W21" s="3">
-        <v>4000</v>
-      </c>
-      <c r="X21" s="3">
-        <v>4500</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1817,174 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F23" s="3">
         <v>8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>2700</v>
       </c>
       <c r="U23" s="3">
         <v>4400</v>
       </c>
       <c r="V23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X23" s="3">
         <v>4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>4300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>4100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>600</v>
       </c>
       <c r="S24" s="3">
         <v>800</v>
       </c>
       <c r="T24" s="3">
+        <v>600</v>
+      </c>
+      <c r="U24" s="3">
+        <v>800</v>
+      </c>
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F26" s="3">
         <v>6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>3200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>3100</v>
       </c>
       <c r="X26" s="3">
         <v>3000</v>
       </c>
       <c r="Y26" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Z26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>3200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>3100</v>
       </c>
       <c r="X27" s="3">
         <v>3000</v>
       </c>
       <c r="Y27" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Z27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,11 +2338,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2234,14 +2356,14 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7500</v>
+        <v>8400</v>
       </c>
       <c r="E32" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="F32" s="3">
-        <v>8600</v>
+        <v>7800</v>
       </c>
       <c r="G32" s="3">
         <v>8500</v>
       </c>
       <c r="H32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J32" s="3">
         <v>8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>5700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>6000</v>
       </c>
       <c r="R32" s="3">
         <v>5700</v>
       </c>
       <c r="S32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="U32" s="3">
         <v>5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>5500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>5600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>5100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>5300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>3200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>3100</v>
       </c>
       <c r="X33" s="3">
         <v>3000</v>
       </c>
       <c r="Y33" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Z33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>3200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>3100</v>
       </c>
       <c r="X35" s="3">
         <v>3000</v>
       </c>
       <c r="Y35" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Z35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +3006,170 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>158700</v>
+        <v>13600</v>
       </c>
       <c r="E41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G41" s="3">
         <v>11600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>13700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>11000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>8300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>19600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>8700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>34700</v>
       </c>
       <c r="E42" s="3">
+        <v>81400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>149300</v>
+      </c>
+      <c r="G42" s="3">
         <v>132600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>74800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>61700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>72700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>37800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>62200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>40000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>60600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>25000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>49900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>15000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>18500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>21600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>19200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>26400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>69200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>19000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>15800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>14500</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>24200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3322,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3402,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3482,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,124 +3562,136 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>29400</v>
       </c>
       <c r="E48" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G48" s="3">
         <v>29200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>29900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>30500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>31100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>31500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>31800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>25300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>21900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>16800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>4400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>4500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F49" s="3">
         <v>11200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>13000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3479,11 +3701,11 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,68 +3882,74 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>7200</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
+        <v>6100</v>
       </c>
       <c r="F52" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G52" s="3">
         <v>4700</v>
       </c>
       <c r="H52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J52" s="3">
         <v>4500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3700</v>
       </c>
       <c r="K52" s="3">
         <v>3700</v>
       </c>
       <c r="L52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1625100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1677900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1687700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1669200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1635500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1684500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1602800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1549800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1593100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1424600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1454900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1379600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1361200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1297200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1251600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1234900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1240800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1183900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1200600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1119000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1054500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1044400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1026000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1008700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,55 +4186,57 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1600</v>
       </c>
       <c r="S57" s="3">
         <v>1800</v>
@@ -3982,11 +4244,11 @@
       <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
+      <c r="U57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1600</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>5</v>
@@ -4000,8 +4262,14 @@
       <c r="Z57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,64 +4342,70 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>17700</v>
       </c>
       <c r="E59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="G59" s="3">
         <v>17500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>19000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4148,8 +4422,14 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4502,14 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4582,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1413800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1464700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1471100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1454000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1422600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1472000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1394000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1344600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1390900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1225600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1259000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1186500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1171900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1111000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1067200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1055400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1064800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1012300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1032300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>952200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>943000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>937000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>922500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>907100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>115800</v>
+      </c>
+      <c r="F72" s="3">
         <v>111500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>106500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>101700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>97400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>93400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>89900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>87100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>84600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>82300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>79600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>76000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>73700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>73600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>70000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>66300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>62700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>59100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>57400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>54200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>51200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>48100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>45100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>213200</v>
+      </c>
+      <c r="F76" s="3">
         <v>216600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>215200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>212800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>212500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>208800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>205200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>202200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>199000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>195900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>193100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>189400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>186200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>184300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>179500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>176000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>171600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>168300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>166800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>111600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>107400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>103500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>101600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>3200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>3100</v>
       </c>
       <c r="X81" s="3">
         <v>3000</v>
       </c>
       <c r="Y81" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Z81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,22 +6011,24 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>-1400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -5639,25 +6037,25 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -5689,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>4000</v>
       </c>
       <c r="E89" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K89" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P89" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>4300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="R89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>12400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>4300</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>4200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>4100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>4000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6601,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>2900</v>
-      </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>4600</v>
       </c>
       <c r="E94" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G94" s="3">
         <v>32400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>49300</v>
-      </c>
       <c r="H94" s="3">
+        <v>64200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-21300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>10900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-129900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>12800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-37500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-40100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>146900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-37500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>11800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-64400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-34600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-28500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-64400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-5200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-14800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,52 +6951,54 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1200</v>
       </c>
-      <c r="F96" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G96" s="3">
-        <v>1900</v>
+        <v>-1200</v>
       </c>
       <c r="H96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>-700</v>
       </c>
       <c r="L96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M96" s="3">
         <v>-700</v>
       </c>
-      <c r="M96" s="3">
-        <v>-200</v>
-      </c>
       <c r="N96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="O96" s="3">
         <v>-200</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-55900</v>
       </c>
       <c r="E100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G100" s="3">
         <v>29300</v>
       </c>
-      <c r="F100" s="3">
-        <v>24900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-53200</v>
-      </c>
       <c r="H100" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>73800</v>
+      </c>
+      <c r="J100" s="3">
         <v>47500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-43100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>122600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-38100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>73000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>14200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-120500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>30600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>11600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>53200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-20000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>80600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>60600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>8100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>14000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>16100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-47300</v>
       </c>
       <c r="E102" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G102" s="3">
         <v>64200</v>
       </c>
-      <c r="F102" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-14700</v>
-      </c>
       <c r="H102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="J102" s="3">
         <v>32100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-28300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-21200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>34100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-24200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>38900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>6200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-7200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-50000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>55600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E8" s="3">
         <v>17500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,7 +1318,7 @@
         <v>-100</v>
       </c>
       <c r="E15" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F15" s="3">
         <v>-200</v>
@@ -1328,13 +1351,13 @@
         <v>-200</v>
       </c>
       <c r="P15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3600</v>
       </c>
       <c r="T17" s="3">
         <v>3600</v>
       </c>
       <c r="U17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2000</v>
       </c>
       <c r="Z17" s="3">
         <v>2000</v>
       </c>
       <c r="AA17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E18" s="3">
         <v>16300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9300</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>9400</v>
       </c>
       <c r="AA18" s="3">
         <v>9400</v>
       </c>
       <c r="AB18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="AC18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,159 +1626,165 @@
         <v>-8400</v>
       </c>
       <c r="E20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-4700</v>
       </c>
       <c r="W20" s="3">
         <v>-4700</v>
       </c>
       <c r="X20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3800</v>
       </c>
       <c r="M23" s="3">
         <v>3800</v>
       </c>
       <c r="N23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4300</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>4100</v>
       </c>
       <c r="AB23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="E24" s="3">
         <v>1600</v>
       </c>
       <c r="F24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>700</v>
       </c>
       <c r="M24" s="3">
         <v>700</v>
       </c>
       <c r="N24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O24" s="3">
         <v>800</v>
       </c>
       <c r="P24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>800</v>
       </c>
       <c r="S24" s="3">
         <v>800</v>
       </c>
       <c r="T24" s="3">
+        <v>800</v>
+      </c>
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,79 +2112,82 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E26" s="3">
         <v>6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>3600</v>
       </c>
       <c r="U26" s="3">
         <v>3600</v>
       </c>
       <c r="V26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>3000</v>
       </c>
       <c r="AA26" s="3">
         <v>3000</v>
@@ -2143,79 +2195,82 @@
       <c r="AB26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>3600</v>
       </c>
       <c r="U27" s="3">
         <v>3600</v>
       </c>
       <c r="V27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>3000</v>
       </c>
       <c r="AA27" s="3">
         <v>3000</v>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,8 +2405,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2362,11 +2423,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,150 +2622,153 @@
         <v>8400</v>
       </c>
       <c r="E32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F32" s="3">
         <v>8200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>4700</v>
       </c>
       <c r="W32" s="3">
         <v>4700</v>
       </c>
       <c r="X32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Y32" s="3">
         <v>5500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>3600</v>
       </c>
       <c r="U33" s="3">
         <v>3600</v>
       </c>
       <c r="V33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>3000</v>
       </c>
       <c r="AA33" s="3">
         <v>3000</v>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,79 +2859,82 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>3600</v>
       </c>
       <c r="U35" s="3">
         <v>3600</v>
       </c>
       <c r="V35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>3000</v>
       </c>
       <c r="AA35" s="3">
         <v>3000</v>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3094,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E41" s="3">
         <v>13600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>11400</v>
       </c>
       <c r="M41" s="3">
         <v>11400</v>
       </c>
       <c r="N41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O41" s="3">
         <v>12000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10400</v>
-      </c>
-      <c r="T41" s="3">
-        <v>6500</v>
       </c>
       <c r="U41" s="3">
         <v>6500</v>
       </c>
       <c r="V41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="W41" s="3">
         <v>13700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>19600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E42" s="3">
         <v>34700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>81400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>149300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>132600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>74800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>61700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>62200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>60600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>49900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>18500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>26400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>69200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14500</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>24200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,133 +3673,139 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E48" s="3">
         <v>29400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>3600</v>
       </c>
       <c r="T48" s="3">
         <v>3600</v>
       </c>
       <c r="U48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V48" s="3">
         <v>3700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E49" s="3">
         <v>10900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3707,8 +3818,8 @@
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,34 +4005,37 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3700</v>
       </c>
       <c r="L52" s="3">
         <v>3700</v>
@@ -3924,35 +4044,35 @@
         <v>3700</v>
       </c>
       <c r="N52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O52" s="3">
         <v>3900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3800</v>
       </c>
       <c r="P52" s="3">
         <v>3800</v>
       </c>
       <c r="Q52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R52" s="3">
         <v>4000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1603100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1625100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1677900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1687700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1669200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1635500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1684500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1602800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1549800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1593100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1424600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1454900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1379600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1361200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1297200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1251600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1234900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1240800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1183900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1119000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1054500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1044400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1026000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1008700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,62 +4328,62 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3900</v>
       </c>
       <c r="N57" s="3">
         <v>3900</v>
       </c>
       <c r="O57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P57" s="3">
         <v>3300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2900</v>
       </c>
       <c r="Q57" s="3">
         <v>2900</v>
       </c>
       <c r="R57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,56 +4482,59 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E59" s="3">
         <v>17700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4407,8 +4544,8 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1390500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1413800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1464700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1471100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1454000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1422600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1472000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1394000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1344600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1390900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1225600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1259000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1186500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1171900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1111000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1067200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1055400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1064800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1012300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1032300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>952200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>943000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>937000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>922500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>907100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E72" s="3">
         <v>120500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>115800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>111500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>106500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>101700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>97400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>93400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>89900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>87100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>84600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>82300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>79600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>76000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>73700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>73600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>70000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>66300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>62700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>59100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>57400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>54200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>51200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>48100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>45100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E76" s="3">
         <v>211300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>213200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>216600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>215200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>212800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>212500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>208800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>205200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>202200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>199000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>195900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>193100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>189400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>186200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>184300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>179500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>176000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>171600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>168300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>166800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>111600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>107400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>103500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>101600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,164 +6007,170 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>3600</v>
       </c>
       <c r="U81" s="3">
         <v>3600</v>
       </c>
       <c r="V81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>3000</v>
       </c>
       <c r="AA81" s="3">
         <v>3000</v>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6211,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -6043,10 +6242,10 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -6055,10 +6254,10 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>4200</v>
       </c>
       <c r="S89" s="3">
         <v>4200</v>
       </c>
       <c r="T89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U89" s="3">
         <v>4000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,76 +6823,77 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E94" s="3">
         <v>4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>32400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>64200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-90900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-129900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>146900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-34600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-28500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-64400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-31400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,10 +7196,10 @@
         <v>-1600</v>
       </c>
       <c r="E96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1200</v>
       </c>
       <c r="G96" s="3">
         <v>-1200</v>
@@ -6974,25 +7208,25 @@
         <v>-1200</v>
       </c>
       <c r="I96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-700</v>
       </c>
       <c r="K96" s="3">
         <v>-700</v>
       </c>
       <c r="L96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-700</v>
       </c>
       <c r="N96" s="3">
         <v>-700</v>
       </c>
       <c r="O96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="P96" s="3">
         <v>-200</v>
@@ -7001,7 +7235,7 @@
         <v>-200</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>29300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-49000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>47500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>122600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>73000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-120500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>30600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>53200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>80600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>60600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>14000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>16100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-64700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>64200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-50000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>55600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F8" s="3">
         <v>19100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>17500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>17100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>17700</v>
       </c>
       <c r="I8" s="3">
         <v>17400</v>
       </c>
       <c r="J8" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="L8" s="3">
         <v>16800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>15500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>15200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>15300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>15000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>14300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>14100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>13500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>12600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>12800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>12200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>11600</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>11300</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>11400</v>
       </c>
       <c r="AB8" s="3">
         <v>11300</v>
       </c>
       <c r="AC8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="AE8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,10 +1366,10 @@
         <v>-100</v>
       </c>
       <c r="F15" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G15" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H15" s="3">
         <v>-200</v>
@@ -1354,16 +1399,16 @@
         <v>-200</v>
       </c>
       <c r="Q15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S15" s="3">
         <v>-100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F18" s="3">
         <v>17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>16300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>16000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>15700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>14800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>10500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>9900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>9600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>7400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>9100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>9400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>9300</v>
       </c>
       <c r="AA18" s="3">
         <v>9400</v>
       </c>
       <c r="AB18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AC18" s="3">
         <v>9400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="AE18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,165 +1693,177 @@
         <v>-8400</v>
       </c>
       <c r="E20" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-8200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-8600</v>
       </c>
       <c r="J20" s="3">
         <v>-8500</v>
       </c>
       <c r="K20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-6600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-6000</v>
       </c>
       <c r="U20" s="3">
         <v>-5700</v>
       </c>
       <c r="V20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="X20" s="3">
         <v>-5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-4700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F21" s="3">
         <v>9700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>8100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>4600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>4200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>4000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>4500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>4400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1945,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F23" s="3">
         <v>9100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>4200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>2700</v>
       </c>
       <c r="X23" s="3">
         <v>4400</v>
       </c>
       <c r="Y23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>4000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>4300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>4100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
-      </c>
-      <c r="T24" s="3">
-        <v>800</v>
-      </c>
-      <c r="U24" s="3">
-        <v>600</v>
       </c>
       <c r="V24" s="3">
         <v>800</v>
       </c>
       <c r="W24" s="3">
+        <v>600</v>
+      </c>
+      <c r="X24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>1100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F26" s="3">
         <v>7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>3100</v>
       </c>
       <c r="AA26" s="3">
         <v>3000</v>
       </c>
       <c r="AB26" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="AC26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F27" s="3">
         <v>7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>3100</v>
       </c>
       <c r="AA27" s="3">
         <v>3000</v>
       </c>
       <c r="AB27" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="AC27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,11 +2529,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2426,14 +2547,14 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,165 +2761,177 @@
         <v>8400</v>
       </c>
       <c r="E32" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F32" s="3">
         <v>8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H32" s="3">
         <v>8200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8600</v>
       </c>
       <c r="J32" s="3">
         <v>8500</v>
       </c>
       <c r="K32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="M32" s="3">
         <v>8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>6600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>5600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>5700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>6000</v>
       </c>
       <c r="U32" s="3">
         <v>5700</v>
       </c>
       <c r="V32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="X32" s="3">
         <v>5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>4700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>4700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>5500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>5600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>5100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>5300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F33" s="3">
         <v>7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>3100</v>
       </c>
       <c r="AA33" s="3">
         <v>3000</v>
       </c>
       <c r="AB33" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="AC33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F35" s="3">
         <v>7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>3100</v>
       </c>
       <c r="AA35" s="3">
         <v>3000</v>
       </c>
       <c r="AB35" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="AC35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3266,188 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F41" s="3">
         <v>11800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>10400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>13700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>8200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>11000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>8300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>19600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>8700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F42" s="3">
         <v>38000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>34700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>81400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>149300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>132600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>74800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>61700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>72700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>37800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>62200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>40000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>60600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>25000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>49900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>15000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>18500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>21600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>19200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>26400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>69200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>19000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>15800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>14500</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>24200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3796,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,142 +3885,154 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F48" s="3">
         <v>28500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>29400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>30000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>30500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>29200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>29900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>30500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>31100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>31500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>31800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>29700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>25300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>24600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>21900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>16800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>4100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>4400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>4500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>4800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F49" s="3">
         <v>10800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>10900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>11600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3821,11 +4042,11 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,77 +4241,83 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4600</v>
       </c>
       <c r="J52" s="3">
         <v>4700</v>
       </c>
       <c r="K52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M52" s="3">
         <v>4500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3700</v>
       </c>
       <c r="N52" s="3">
         <v>3700</v>
       </c>
       <c r="O52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>4800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1585300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1601800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1603100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1625100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1677900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1687700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1669200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1635500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1684500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1602800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1549800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1593100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1424600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1454900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1379600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1361200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1297200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1251600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1234900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1240800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1183900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1200600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1119000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1054500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1044400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1026000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1008700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,64 +4578,66 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1600</v>
       </c>
       <c r="V57" s="3">
         <v>1800</v>
@@ -4384,11 +4645,11 @@
       <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
+      <c r="X57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>1600</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>5</v>
@@ -4402,8 +4663,14 @@
       <c r="AC57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,73 +4752,79 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F59" s="3">
         <v>17200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>17700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>19600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>18100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>15400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>12500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4568,8 +4841,14 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1382200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1390500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1413800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1464700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1471100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1454000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1422600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1472000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1394000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1344600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1390900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1225600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1259000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1186500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1171900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1111000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1067200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1055400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1064800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1012300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1032300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>952200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>943000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>937000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>922500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>907100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>131500</v>
+      </c>
+      <c r="F72" s="3">
         <v>125900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>120500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>115800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>111500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>106500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>101700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>97400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>93400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>89900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>87100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>84600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>82300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>79600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>76000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>73700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>73600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>70000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>66300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>62700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>59100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>57400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>54200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>51200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>48100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>45100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>219600</v>
+      </c>
+      <c r="F76" s="3">
         <v>212500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>211300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>213200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>216600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>215200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>212800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>212500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>208800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>205200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>202200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>199000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>195900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>193100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>189400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>186200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>184300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>179500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>176000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>171600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>168300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>166800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>111600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>107400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>103500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>101600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F81" s="3">
         <v>7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>3100</v>
       </c>
       <c r="AA81" s="3">
         <v>3000</v>
       </c>
       <c r="AB81" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="AC81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,19 +6607,21 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -6245,25 +6642,25 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
       </c>
       <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
+        <v>400</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>8400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>4000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>4600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>4100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>4000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>2000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>3100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F94" s="3">
         <v>19900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>4600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-59800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>32400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>64200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-90900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-21300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>10900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-129900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>12800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-37500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>146900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-37500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-21400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>11800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-64400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-34600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-28500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-64400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-14800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-31400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,61 +7652,63 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="E96" s="3">
         <v>-1600</v>
       </c>
       <c r="F96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1200</v>
       </c>
       <c r="I96" s="3">
         <v>-1200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1400</v>
       </c>
       <c r="N96" s="3">
         <v>-700</v>
       </c>
       <c r="O96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-700</v>
       </c>
-      <c r="P96" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="R96" s="3">
         <v>-200</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-26400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-55900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-9500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>10700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>29300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-49000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>73800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>47500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-43100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>122600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-38100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>73000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>14200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-120500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>30600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>11600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-9800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>53200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-20000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>80600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>60600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>8100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>14000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>16100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-47300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-64700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>64200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>32100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-28300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-21200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>34100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>38900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-5500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>6200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-7200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-50000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>55600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>4000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>3200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-13300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,226 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1395,7 @@
         <v>-100</v>
       </c>
       <c r="H15" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="3">
         <v>-200</v>
@@ -1405,13 +1428,13 @@
         <v>-200</v>
       </c>
       <c r="S15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T15" s="3">
         <v>-100</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3900</v>
-      </c>
-      <c r="V17" s="3">
-        <v>3600</v>
       </c>
       <c r="W17" s="3">
         <v>3600</v>
       </c>
       <c r="X17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>3000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2200</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>2000</v>
       </c>
       <c r="AC17" s="3">
         <v>2000</v>
       </c>
       <c r="AD17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE17" s="3">
         <v>1900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E18" s="3">
         <v>16400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>9100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9300</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>9400</v>
       </c>
       <c r="AD18" s="3">
         <v>9400</v>
       </c>
       <c r="AE18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="AF18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-8400</v>
       </c>
       <c r="G20" s="3">
         <v>-8400</v>
       </c>
       <c r="H20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-8200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-4700</v>
       </c>
       <c r="Z20" s="3">
         <v>-4700</v>
       </c>
       <c r="AA20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-5100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-5300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>4400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>3800</v>
       </c>
       <c r="P23" s="3">
         <v>3800</v>
       </c>
       <c r="Q23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R23" s="3">
         <v>4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4300</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>4100</v>
       </c>
       <c r="AE23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1600</v>
       </c>
       <c r="H24" s="3">
         <v>1600</v>
       </c>
       <c r="I24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>700</v>
       </c>
       <c r="P24" s="3">
         <v>700</v>
       </c>
       <c r="Q24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R24" s="3">
         <v>800</v>
       </c>
       <c r="S24" s="3">
+        <v>800</v>
+      </c>
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>800</v>
       </c>
       <c r="V24" s="3">
         <v>800</v>
       </c>
       <c r="W24" s="3">
+        <v>800</v>
+      </c>
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,88 +2267,91 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>3600</v>
       </c>
       <c r="X26" s="3">
         <v>3600</v>
       </c>
       <c r="Y26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3100</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>3000</v>
       </c>
       <c r="AD26" s="3">
         <v>3000</v>
@@ -2307,88 +2359,91 @@
       <c r="AE26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>3600</v>
       </c>
       <c r="X27" s="3">
         <v>3600</v>
       </c>
       <c r="Y27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3100</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>3000</v>
       </c>
       <c r="AD27" s="3">
         <v>3000</v>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,8 +2596,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2553,11 +2614,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,177 +2819,183 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>8400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8400</v>
       </c>
       <c r="G32" s="3">
         <v>8400</v>
       </c>
       <c r="H32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I32" s="3">
         <v>8200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>4700</v>
       </c>
       <c r="Z32" s="3">
         <v>4700</v>
       </c>
       <c r="AA32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="AB32" s="3">
         <v>5500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>5100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>5300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>3600</v>
       </c>
       <c r="X33" s="3">
         <v>3600</v>
       </c>
       <c r="Y33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3100</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>3000</v>
       </c>
       <c r="AD33" s="3">
         <v>3000</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,88 +3095,91 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>3600</v>
       </c>
       <c r="X35" s="3">
         <v>3600</v>
       </c>
       <c r="Y35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3100</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>3000</v>
       </c>
       <c r="AD35" s="3">
         <v>3000</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,186 +3354,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E41" s="3">
         <v>10100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>11400</v>
       </c>
       <c r="P41" s="3">
         <v>11400</v>
       </c>
       <c r="Q41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="R41" s="3">
         <v>12000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10400</v>
-      </c>
-      <c r="W41" s="3">
-        <v>6500</v>
       </c>
       <c r="X41" s="3">
         <v>6500</v>
       </c>
       <c r="Y41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Z41" s="3">
         <v>13700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>19600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E42" s="3">
         <v>10200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>43300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>81400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>149300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>132600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>74800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>61700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>37800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>62200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>40000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>60600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>49900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>18500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>21600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>26400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>69200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>19000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>15800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>14500</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <v>24200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,151 +3996,157 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E48" s="3">
         <v>27400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>3600</v>
       </c>
       <c r="W48" s="3">
         <v>3600</v>
       </c>
       <c r="X48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y48" s="3">
         <v>3700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E49" s="3">
         <v>10500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
@@ -4048,8 +4159,8 @@
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,43 +4364,46 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3700</v>
       </c>
       <c r="O52" s="3">
         <v>3700</v>
@@ -4292,35 +4412,35 @@
         <v>3700</v>
       </c>
       <c r="Q52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R52" s="3">
         <v>3900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>3800</v>
       </c>
       <c r="S52" s="3">
         <v>3800</v>
       </c>
       <c r="T52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U52" s="3">
         <v>4000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1843000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1585300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1601800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1603100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1625100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1677900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1687700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1669200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1635500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1684500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1602800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1549800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1593100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1424600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1454900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1379600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1361200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1297200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1251600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1234900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1240800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1183900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1200600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1119000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1054500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1044400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1026000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1008700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,80 +4710,81 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3900</v>
       </c>
       <c r="Q57" s="3">
         <v>3900</v>
       </c>
       <c r="R57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S57" s="3">
         <v>3300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2900</v>
       </c>
       <c r="T57" s="3">
         <v>2900</v>
       </c>
       <c r="U57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,65 +4892,68 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4826,8 +4963,8 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1614100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1360000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1382200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1390500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1413800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1464700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1471100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1454000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1422600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1472000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1394000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1344600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1390900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1225600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1259000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1186500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1171900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1111000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1067200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1055400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1064800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1012300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1032300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>952200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>943000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>937000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>922500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>907100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E72" s="3">
         <v>135400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>131500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>125900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>120500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>115800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>111500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>106500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>101700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>97400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>93400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>89900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>87100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>84600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>82300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>79600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>76000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>73700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>73600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>70000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>66300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>62700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>59100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>57400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>54200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>51200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>48100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>45100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>228900</v>
+      </c>
+      <c r="E76" s="3">
         <v>225300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>219600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>212500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>211300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>213200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>215200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>212800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>208800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>205200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>202200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>199000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>195900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>193100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>189400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>186200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>184300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>179500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>176000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>171600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>168300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>166800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>111600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>107400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>103500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>101600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,182 +6582,188 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>3600</v>
       </c>
       <c r="X81" s="3">
         <v>3600</v>
       </c>
       <c r="Y81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3100</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>3000</v>
       </c>
       <c r="AD81" s="3">
         <v>3000</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,22 +6807,23 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -6648,10 +6847,10 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
         <v>900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
@@ -6660,10 +6859,10 @@
         <v>400</v>
       </c>
       <c r="S83" s="3">
+        <v>400</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>4200</v>
       </c>
       <c r="V89" s="3">
         <v>4200</v>
       </c>
       <c r="W89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X89" s="3">
         <v>4000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,85 +7485,86 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>19900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>32400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>64200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-90900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-129900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>146900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-37500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>11800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-64400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-28500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-64400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-14800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-31400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7663,7 +7897,7 @@
         <v>-1900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="F96" s="3">
         <v>-1600</v>
@@ -7672,10 +7906,10 @@
         <v>-1600</v>
       </c>
       <c r="H96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1200</v>
       </c>
       <c r="J96" s="3">
         <v>-1200</v>
@@ -7684,25 +7918,25 @@
         <v>-1200</v>
       </c>
       <c r="L96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-700</v>
       </c>
       <c r="N96" s="3">
         <v>-700</v>
       </c>
       <c r="O96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-700</v>
       </c>
       <c r="Q96" s="3">
         <v>-700</v>
       </c>
       <c r="R96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="S96" s="3">
         <v>-200</v>
@@ -7711,7 +7945,7 @@
         <v>-200</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-49000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>122600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>73000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>14200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-120500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>30600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>11600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>53200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>80600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>60600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>8100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>14000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>16100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-47300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-64700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>64200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>38900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>55600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-13300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPRN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>BPRN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,226 +665,233 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>11300</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -975,8 +982,11 @@
       <c r="AF9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,8 +1114,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1207,11 @@
       <c r="AF12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,8 +1302,11 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1377,8 +1397,11 @@
       <c r="AF14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1421,7 @@
         <v>-100</v>
       </c>
       <c r="I15" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J15" s="3">
         <v>-200</v>
@@ -1431,13 +1454,13 @@
         <v>-200</v>
       </c>
       <c r="T15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U15" s="3">
         <v>-100</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,192 +1526,199 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1200</v>
       </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3900</v>
-      </c>
-      <c r="W17" s="3">
-        <v>3600</v>
       </c>
       <c r="X17" s="3">
         <v>3600</v>
       </c>
       <c r="Y17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>3000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2200</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>2000</v>
       </c>
       <c r="AD17" s="3">
         <v>2000</v>
       </c>
       <c r="AE17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AF17" s="3">
         <v>1900</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E18" s="3">
         <v>13200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>9300</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>9400</v>
       </c>
       <c r="AE18" s="3">
         <v>9400</v>
       </c>
       <c r="AF18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="AG18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,192 +1751,199 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-8400</v>
       </c>
       <c r="H20" s="3">
         <v>-8400</v>
       </c>
       <c r="I20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-4700</v>
       </c>
       <c r="AA20" s="3">
         <v>-4700</v>
       </c>
       <c r="AB20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-5100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-5300</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E21" s="3">
         <v>7400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>4500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>4400</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1994,192 +2034,201 @@
       <c r="AF22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E23" s="3">
         <v>6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3800</v>
       </c>
       <c r="Q23" s="3">
         <v>3800</v>
       </c>
       <c r="R23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S23" s="3">
         <v>4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>4300</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>4100</v>
       </c>
       <c r="AF23" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1600</v>
       </c>
       <c r="I24" s="3">
         <v>1600</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>700</v>
       </c>
       <c r="Q24" s="3">
         <v>700</v>
       </c>
       <c r="R24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S24" s="3">
         <v>800</v>
       </c>
       <c r="T24" s="3">
+        <v>800</v>
+      </c>
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>800</v>
       </c>
       <c r="W24" s="3">
         <v>800</v>
       </c>
       <c r="X24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1100</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AG24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,91 +2319,94 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E26" s="3">
         <v>6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3700</v>
-      </c>
-      <c r="X26" s="3">
-        <v>3600</v>
       </c>
       <c r="Y26" s="3">
         <v>3600</v>
       </c>
       <c r="Z26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3100</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>3000</v>
       </c>
       <c r="AE26" s="3">
         <v>3000</v>
@@ -2362,91 +2414,94 @@
       <c r="AF26" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG26" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E27" s="3">
         <v>6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>3600</v>
       </c>
       <c r="Y27" s="3">
         <v>3600</v>
       </c>
       <c r="Z27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3100</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>3000</v>
       </c>
       <c r="AE27" s="3">
         <v>3000</v>
@@ -2454,8 +2509,11 @@
       <c r="AF27" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG27" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2599,8 +2660,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2617,11 +2678,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,183 +2889,189 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E32" s="3">
         <v>6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>8400</v>
       </c>
       <c r="H32" s="3">
         <v>8400</v>
       </c>
       <c r="I32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J32" s="3">
         <v>8200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5300</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>4700</v>
       </c>
       <c r="AA32" s="3">
         <v>4700</v>
       </c>
       <c r="AB32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="AC32" s="3">
         <v>5500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>5600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>5100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>5300</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>3600</v>
       </c>
       <c r="Y33" s="3">
         <v>3600</v>
       </c>
       <c r="Z33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3100</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>3000</v>
       </c>
       <c r="AE33" s="3">
         <v>3000</v>
@@ -3006,8 +3079,11 @@
       <c r="AF33" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG33" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,91 +3174,94 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>3600</v>
       </c>
       <c r="Y35" s="3">
         <v>3600</v>
       </c>
       <c r="Z35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3100</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>3000</v>
       </c>
       <c r="AE35" s="3">
         <v>3000</v>
@@ -3190,105 +3269,111 @@
       <c r="AF35" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG35" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,192 +3441,199 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>16100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
-      </c>
-      <c r="P41" s="3">
-        <v>11400</v>
       </c>
       <c r="Q41" s="3">
         <v>11400</v>
       </c>
       <c r="R41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="S41" s="3">
         <v>12000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10400</v>
-      </c>
-      <c r="X41" s="3">
-        <v>6500</v>
       </c>
       <c r="Y41" s="3">
         <v>6500</v>
       </c>
       <c r="Z41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="AA41" s="3">
         <v>13700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>19600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>8700</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>197600</v>
+      </c>
+      <c r="E42" s="3">
         <v>132800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>38000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>81400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>149300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>132600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>74800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>62200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>60600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>25000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>49900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>18500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>21600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>19200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>26400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>69200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>19000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>15800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>14500</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE42" s="3">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF42" s="3">
         <v>24200</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3631,8 +3724,11 @@
       <c r="AF43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3723,8 +3819,11 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3815,8 +3914,11 @@
       <c r="AF45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3907,8 +4009,11 @@
       <c r="AF46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3999,157 +4104,163 @@
       <c r="AF47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E48" s="3">
         <v>37700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>3600</v>
       </c>
       <c r="X48" s="3">
         <v>3600</v>
       </c>
       <c r="Y48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z48" s="3">
         <v>3700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4800</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AG48" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
@@ -4162,8 +4273,8 @@
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,46 +4484,49 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E52" s="3">
         <v>12700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3700</v>
       </c>
       <c r="P52" s="3">
         <v>3700</v>
@@ -4415,35 +4535,35 @@
         <v>3700</v>
       </c>
       <c r="R52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S52" s="3">
         <v>3900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>3800</v>
       </c>
       <c r="T52" s="3">
         <v>3800</v>
       </c>
       <c r="U52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V52" s="3">
         <v>4000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>800</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,100 +4674,106 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1913100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1843000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1585300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1601800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1603100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1625100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1677900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1687700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1669200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1635500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1684500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1602800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1549800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1593100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1424600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1454900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1379600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1361200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1297200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1251600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1234900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1240800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1183900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1200600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1119000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1054500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1044400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1026000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1008700</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>1006100</v>
       </c>
     </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,83 +4841,84 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3900</v>
       </c>
       <c r="R57" s="3">
         <v>3900</v>
       </c>
       <c r="S57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T57" s="3">
         <v>3300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2900</v>
       </c>
       <c r="U57" s="3">
         <v>2900</v>
       </c>
       <c r="V57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1600</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4803,8 +4934,11 @@
       <c r="AF57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4895,68 +5029,71 @@
       <c r="AF58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E59" s="3">
         <v>23800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4966,8 +5103,8 @@
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4987,8 +5124,11 @@
       <c r="AF59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -5079,8 +5219,11 @@
       <c r="AF60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5171,8 +5314,11 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5263,8 +5409,11 @@
       <c r="AF62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1680900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1614100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1360000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1382200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1390500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1413800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1464700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1471100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1454000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1422600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1472000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1394000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1344600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1390900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1225600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1259000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1186500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1171900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1111000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1067200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1055400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1064800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1012300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1032300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>952200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>943000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>937000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>922500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>907100</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>907500</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E72" s="3">
         <v>140300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>135400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>131500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>125900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>120500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>115800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>111500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>106500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>101700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>97400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>93400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>89900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>87100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>84600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>82300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>79600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>76000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>73700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>73600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>70000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>66300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>62700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>59100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>57400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>54200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>51200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>48100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>45100</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>42100</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,100 +6584,106 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>232200</v>
+      </c>
+      <c r="E76" s="3">
         <v>228900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>225300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>219600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>212500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>211300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>213200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>216600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>215200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>212500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>208800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>205200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>202200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>199000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>195900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>193100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>189400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>186200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>184300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>179500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>176000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>171600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>168300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>166800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>111600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>107400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>103500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>101600</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>98600</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,188 +6774,194 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>3600</v>
       </c>
       <c r="Y81" s="3">
         <v>3600</v>
       </c>
       <c r="Z81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3100</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>3000</v>
       </c>
       <c r="AE81" s="3">
         <v>3000</v>
@@ -6774,8 +6969,11 @@
       <c r="AF81" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG81" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,8 +7006,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6817,16 +7016,16 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -6850,10 +7049,10 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>400</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
@@ -6862,10 +7061,10 @@
         <v>400</v>
       </c>
       <c r="T83" s="3">
+        <v>400</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -6900,8 +7099,11 @@
       <c r="AF83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,100 +7574,106 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>4200</v>
       </c>
       <c r="W89" s="3">
         <v>4200</v>
       </c>
       <c r="X89" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>4000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>3100</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,88 +7706,89 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="3">
         <v>-100</v>
       </c>
       <c r="AC91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
@@ -7578,8 +7799,11 @@
       <c r="AF91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,100 +7989,106 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>76700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>32400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>64200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>146900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-37500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>11800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-64400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-34600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-28500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-64400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-14800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-31400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF94" s="3">
+      <c r="AG94" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,19 +8121,20 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E96" s="3">
         <v>-1900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="G96" s="3">
         <v>-1600</v>
@@ -7909,10 +8143,10 @@
         <v>-1600</v>
       </c>
       <c r="I96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1200</v>
       </c>
       <c r="K96" s="3">
         <v>-1200</v>
@@ -7921,25 +8155,25 @@
         <v>-1200</v>
       </c>
       <c r="M96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-700</v>
       </c>
       <c r="O96" s="3">
         <v>-700</v>
       </c>
       <c r="P96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-700</v>
       </c>
       <c r="R96" s="3">
         <v>-700</v>
       </c>
       <c r="S96" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="T96" s="3">
         <v>-200</v>
@@ -7948,7 +8182,7 @@
         <v>-200</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,100 +8499,106 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E100" s="3">
         <v>42700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>122600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>73000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-120500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>30600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>11600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>53200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>80600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>60600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>8100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>14000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>16100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>100</v>
       </c>
-      <c r="AF100" s="3">
+      <c r="AG100" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8440,96 +8689,102 @@
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E102" s="3">
         <v>125000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-47300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-64700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>38900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>55600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-13300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1500</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>2900</v>
       </c>
     </row>
